--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ575Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ575Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C03C20-E3DC-432D-9517-AB3B302C7FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F610EDA-5795-4D42-8DF0-B36D7DC4FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>A:金融機構位於時限內回報債權資料之補報送
 B:債務人申請異動債權金額</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -282,6 +278,12 @@
   <si>
     <t>JcicZ575Log</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,7 +881,7 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -898,10 +900,10 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -926,10 +928,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1019,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>18</v>
@@ -1038,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
@@ -1052,7 +1054,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>3</v>
       </c>
@@ -1070,7 +1072,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -1091,7 +1093,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1730,24 +1732,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
